--- a/biology/Botanique/Podocarpaceae/Podocarpaceae.xlsx
+++ b/biology/Botanique/Podocarpaceae/Podocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Podocarpacées (Podocarpaceae) sont une famille de conifères de l'ordre des Araucariales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Podocarpus, dérivé du grec ποδός / podos, pied, et καρπός / (karpos), fruit, en référence au fruit à pédoncule oblique qui ressemble à un pied tapant dans un ballon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Podocarpus, dérivé du grec ποδός / podos, pied, et καρπός / (karpos), fruit, en référence au fruit à pédoncule oblique qui ressemble à un pied tapant dans un ballon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve principalement dans l'hémisphère Sud. Ils sont très présents en Australasie, particulièrement en Nouvelle-Calédonie, en Tasmanie et en Nouvelle-Zélande. Plusieurs genres peuvent cependant être vus de l'autre côté de l'équateur, et deux genres peuvent être trouvés en Afrique subsaharienne.
 Le genre Podocarpus est le genre le plus large. Il compte entre 82 et 100 espèces, qu'on trouve principalement en Amérique du Sud et en Indonésie. Le second est le genre Dacrydium (21 espèces), également très diversifié en Indonésie.
@@ -575,7 +591,9 @@
           <t>Historique de la classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 1970, seuls 7 genres de Podocarpacées étaient reconnus : Podocarpus, Dacrydium, Phyllocladus, Acmopyle, Microcachrys, Saxegothaea et Pherosphaera. Le genre Podocarpus fut ensuite scindé en plusieurs catégories sur des critères anatomiques: Afrocarpus, Dacrycarpus, Eupodocarpus, Microcarpus, Nageia, Polypodiopsis, Stachycarpus et Sundacarpus. Mais des études basées sur la structure du cône femelle, du développement du gamétophyte, sur la cytologie et l'embryologie montrèrent les limites de cette classification qui n'était sans doute pas suffisamment au point.
 En 1990, un traité à propos des podocarpacées reconnait 17 genres et exclut le genre Phyllocladus, considéré comme trop différent et donc rangé dans une famille à part. En 1995, du genre Lagarostrobos est retirée l'espèce Manoao colensoi qui fut classée comme seule représentante du genre Manoao
@@ -608,7 +626,9 @@
           <t>Liste des genres actuels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette liste inclut les genres discutés, c'est-à-dire Manoao (parfois intégré au sein du genre Lagarostrobos), Phyllocladus (souvent intégré dans une famille-sœur, les Phyllocladacées) et Sundacarpus (souvent fusionné avec Prumnopitys) 
 Acmopyle Pilg.
@@ -630,7 +650,7 @@
 Retrophyllum C. N. Page.
 Saxegothaea Lindl.
 Sundacarpus (J. Buchholz &amp; N. E. Gray) C. N. Page.
-Selon Catalogue of Life                                   (20 juillet 2017)[2] :
+Selon Catalogue of Life                                   (20 juillet 2017) :
 Acmopyle
 Afrocarpus
 Dacrycarpus
@@ -676,7 +696,9 @@
           <t>Espèces remarquables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Parasitaxus usta est le seul gymnosperme connu qui soit une plante parasite. Elle est endémique en Nouvelle-Calédonie et vit aux dépens d'un autre Podocarpacée, Falcatifolium taxoides. 
 </t>
